--- a/Docs/需求/iHub進度整理0102(33).xlsx
+++ b/Docs/需求/iHub進度整理0102(33).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\公司內部作業\總經理交辦\資訊室交接\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\iHub\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8177410-9C97-490E-ABF2-FFC9E234A903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB591C06-5B3B-4C7A-BEA4-154CC813AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>第一層</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -474,12 +474,269 @@
     <t>可再加歷史</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>可由Windows排程控管設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iHub登入後，登入者姓名右方區塊，定時3秒換頁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more連結顯示多筆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代辦事項(專案履約前1月提醒同仁)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小提醒(專案履約前5天提醒同仁或移除調整UI介面)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日同步更新產基會官網最新公告 (https://www.ftis.org.tw/news.aspx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>細部功能多，需與忠哥討論</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sheet2)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用日曆套件，呈現同仁(當月前後)班表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人資使用，每月5薪資報表匯出</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，並已配合人資開發數個報表匯出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，已可使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因使用圖檔呈現，無法配合解析度大小變動；若有座位合併，可變動底圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(未開發)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(修正中)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理者新班表設定介面、及人資或同仁班表查閱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已完成)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼副無法登入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色權限控制不顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu新增1個，慣用項目(分部門)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，清哥已開發完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，小明持續配合雁秋需求調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限已開</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定角色可使用的Menu對應的頁面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者登入紀錄(IP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可刪除或調整狀態(未啟用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +800,32 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +841,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +924,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,9 +943,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFD60093"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -923,142 +1222,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="64.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.69921875" customWidth="1"/>
+    <col min="7" max="7" width="68.59765625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1089,11 +1407,14 @@
       <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -1105,11 +1426,14 @@
       <c r="E13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1121,11 +1445,14 @@
       <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1137,11 +1464,14 @@
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
@@ -1153,11 +1483,14 @@
         <v>48</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1169,11 +1502,14 @@
         <v>51</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -1185,11 +1521,14 @@
         <v>51</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -1201,11 +1540,14 @@
       <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1219,11 +1561,14 @@
       <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1239,14 +1584,17 @@
       <c r="E21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
@@ -1258,14 +1606,17 @@
       <c r="E22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
@@ -1277,11 +1628,14 @@
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -1293,11 +1647,11 @@
         <v>54</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1311,11 +1665,14 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>18</v>
@@ -1327,11 +1684,14 @@
       <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -1343,14 +1703,17 @@
       <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>20</v>
@@ -1362,11 +1725,14 @@
         <v>54</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>21</v>
@@ -1378,8 +1744,9 @@
         <v>54</v>
       </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>22</v>
@@ -1391,8 +1758,9 @@
         <v>54</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>23</v>
@@ -1403,12 +1771,14 @@
       <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
@@ -1420,14 +1790,17 @@
         <v>54</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>25</v>
@@ -1439,11 +1812,14 @@
         <v>51</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>26</v>
@@ -1455,11 +1831,14 @@
         <v>54</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1473,14 +1852,17 @@
         <v>51</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="7" t="s">
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1494,14 +1876,17 @@
         <v>51</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="7" t="s">
+      <c r="F36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -1515,11 +1900,14 @@
         <v>51</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>32</v>
@@ -1531,11 +1919,12 @@
         <v>51</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1549,11 +1938,14 @@
         <v>51</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="7" t="s">
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>35</v>
@@ -1565,11 +1957,14 @@
         <v>51</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -1581,11 +1976,14 @@
       <c r="E41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>37</v>
@@ -1597,11 +1995,14 @@
         <v>51</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
@@ -1615,11 +2016,14 @@
         <v>51</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="7" t="s">
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>40</v>
@@ -1631,11 +2035,14 @@
         <v>51</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="7" t="s">
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>41</v>
@@ -1647,11 +2054,14 @@
         <v>51</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1665,11 +2075,14 @@
       <c r="E46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>44</v>
@@ -1681,11 +2094,14 @@
       <c r="E47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +2117,10 @@
       <c r="E48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Docs/需求/iHub進度整理0102(33).xlsx
+++ b/Docs/需求/iHub進度整理0102(33).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\iHub\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB591C06-5B3B-4C7A-BEA4-154CC813AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67EFF55-EE86-4116-B3CB-D8ABEFA588FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
   <si>
     <t>第一層</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -540,6 +540,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>測試ok，並已配合人資開發數個報表匯出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，已可使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因使用圖檔呈現，無法配合解析度大小變動；若有座位合併，可變動底圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -549,6 +561,39 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(修正中)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理者新班表設定介面、及人資或同仁班表查閱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已完成)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色權限控制不顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(未開發)</t>
     </r>
     <r>
@@ -560,7 +605,94 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>細部功能多，需與忠哥討論</t>
+      <t>Menu新增1個，慣用項目(分部門)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，清哥已開發完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，小明持續配合雁秋需求調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限已開</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定角色可使用的Menu對應的頁面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者登入紀錄(IP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可刪除或調整狀態(未啟用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>線上離職申請與人資控管</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>線上報修系統及資訊需求申請單下載</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>連結T8資料庫，細部功能多，需與忠哥討論</t>
     </r>
     <r>
       <rPr>
@@ -596,7 +728,162 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>使用日曆套件，呈現同仁(當月前後)班表</t>
+      <t>連結T8資料庫，使用日曆套件，呈現同仁(當月前後)班表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增活動資料，可設定時間區間，產出報表給總經理。
+若有托播需求，可依照格式上傳檔案，雁秋將協助處理。
+另外連動線上差旅報帳系統，可不用重複輸入資料。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增用印申請單、用畢回報及控管權限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">新增部門內訓課程/讀書會。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)新增內訓課程、報名、講義上傳以及課程分類。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>線上差旅費用申請及報銷</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(已完成)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>無法用開機密碼自動登入，線上mail系統提供「會外人員」使用，主機為會內Linux，並非M365。
+會外人員並無M365帳號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">期中、期末績效評量溝通(自評與同儕)。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -621,37 +908,13 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>人資使用，每月5薪資報表匯出</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，並已配合人資開發數個報表匯出功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，已可使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因使用圖檔呈現，無法配合解析度大小變動；若有座位合併，可變動底圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(未開發)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(修正中)</t>
+      <t>人資使用，每月5號薪資報表匯出</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未開發)</t>
     </r>
     <r>
       <rPr>
@@ -662,73 +925,13 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>管理者新班表設定介面、及人資或同仁班表查閱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(已完成)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼副無法登入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色權限控制不顯示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Menu新增1個，慣用項目(分部門)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，清哥已開發完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，小明持續配合雁秋需求調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無權限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限已開</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定角色可使用的Menu對應的頁面功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者登入紀錄(IP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可刪除或調整狀態(未啟用)</t>
+      <t>連結T8資料庫，列出簽和流程的處理人員
+另外每日排程寄發mail通知簽核流程的處理人員</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(未開發)依計畫名稱等欄位條件查詢，相關專案，並匯出報表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +1133,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1440,7 @@
     <col min="2" max="2" width="29.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.69921875" customWidth="1"/>
+    <col min="6" max="6" width="104.69921875" customWidth="1"/>
     <col min="7" max="7" width="68.59765625" style="7" customWidth="1"/>
     <col min="8" max="8" width="62.5" customWidth="1"/>
   </cols>
@@ -1251,11 +1457,11 @@
       <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -1264,11 +1470,11 @@
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>106</v>
       </c>
@@ -1283,11 +1489,11 @@
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" t="s">
         <v>107</v>
       </c>
@@ -1300,11 +1506,11 @@
         <v>62</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" t="s">
         <v>109</v>
       </c>
@@ -1319,11 +1525,11 @@
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="11" t="s">
         <v>108</v>
       </c>
@@ -1339,9 +1545,9 @@
         <v>64</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="11" t="s">
         <v>110</v>
       </c>
@@ -1356,11 +1562,11 @@
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="11" t="s">
         <v>111</v>
       </c>
@@ -1408,7 +1614,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>85</v>
@@ -1427,7 +1633,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>81</v>
@@ -1446,7 +1652,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>82</v>
@@ -1465,7 +1671,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>80</v>
@@ -1484,7 +1690,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>83</v>
@@ -1503,7 +1709,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>83</v>
@@ -1522,7 +1728,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>84</v>
@@ -1541,7 +1747,7 @@
         <v>53</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>85</v>
@@ -1562,7 +1768,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>86</v>
@@ -1585,7 +1791,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>85</v>
@@ -1607,7 +1813,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -1616,7 +1822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>14</v>
@@ -1628,8 +1834,8 @@
       <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>118</v>
+      <c r="F23" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>85</v>
@@ -1651,7 +1857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="30.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1665,8 +1871,8 @@
       <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>118</v>
+      <c r="F25" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>88</v>
@@ -1685,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>85</v>
@@ -1704,7 +1910,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>85</v>
@@ -1713,7 +1919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="30.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>20</v>
@@ -1725,8 +1931,8 @@
         <v>54</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="12" t="s">
-        <v>118</v>
+      <c r="F28" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>92</v>
@@ -1744,7 +1950,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
@@ -1771,7 +1977,7 @@
       <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="16" t="s">
         <v>121</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -1791,7 +1997,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>94</v>
@@ -1812,8 +2018,8 @@
         <v>51</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="13" t="s">
-        <v>122</v>
+      <c r="F33" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>96</v>
@@ -1832,7 +2038,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>94</v>
@@ -1853,7 +2059,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>97</v>
@@ -1877,7 +2083,7 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>99</v>
@@ -1901,7 +2107,7 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>100</v>
@@ -1939,7 +2145,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>93</v>
@@ -1958,7 +2164,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>93</v>
@@ -1977,7 +2183,7 @@
         <v>53</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>85</v>
@@ -1996,7 +2202,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>102</v>
@@ -2017,7 +2223,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>103</v>
@@ -2036,7 +2242,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>103</v>
@@ -2055,7 +2261,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>104</v>
@@ -2076,7 +2282,7 @@
         <v>53</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>85</v>
@@ -2095,7 +2301,7 @@
         <v>53</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>85</v>
@@ -2118,7 +2324,7 @@
         <v>53</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>

--- a/Docs/需求/iHub進度整理0102(33).xlsx
+++ b/Docs/需求/iHub進度整理0102(33).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\iHub\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67EFF55-EE86-4116-B3CB-D8ABEFA588FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C3C0B-A1F0-4093-BAAE-2F3B47DB6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,6 +483,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>每日同步更新產基會官網最新公告 (https://www.ftis.org.tw/news.aspx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，並已配合人資開發數個報表匯出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，已可使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因使用圖檔呈現，無法配合解析度大小變動；若有座位合併，可變動底圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已完成)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色權限控制不顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，清哥已開發完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試ok，小明持續配合雁秋需求調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限已開</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定角色可使用的Menu對應的頁面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者登入紀錄(IP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可刪除或調整狀態(未啟用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(已完成)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>無法用開機密碼自動登入，線上mail系統提供「會外人員」使用，主機為會內Linux，並非M365。
+會外人員並無M365帳號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15天 </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -499,18 +580,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>more連結顯示多筆</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代辦事項(專案履約前1月提醒同仁)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>連結T8資料庫，使用日曆套件，呈現同仁(當月前後)班表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60天</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -520,6 +609,197 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> (未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>連結T8資料庫，功能項目多(差勤確認系統、差勤週報查詢、查詢加班統計、加班資料查詢…等)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">期中、期末績效評量溝通(自評與同儕)。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人資使用，每月5號薪資報表匯出，累計約7個Excel報表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10天 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>線上離職申請與人資控管</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(修正中)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理者新班表設定介面、及人資或同仁班表查閱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(未開發)</t>
     </r>
     <r>
@@ -531,27 +811,22 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>小提醒(專案履約前5天提醒同仁或移除調整UI介面)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日同步更新產基會官網最新公告 (https://www.ftis.org.tw/news.aspx)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，並已配合人資開發數個報表匯出功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，已可使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因使用圖檔呈現，無法配合解析度大小變動；若有座位合併，可變動底圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>線上報修系統及資訊需求申請單下載</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">40天 </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -561,7 +836,7 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(修正中)</t>
+      <t>(未開發)</t>
     </r>
     <r>
       <rPr>
@@ -572,180 +847,7 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>管理者新班表設定介面、及人資或同仁班表查閱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(已完成)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色權限控制不顯示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Menu新增1個，慣用項目(分部門)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，清哥已開發完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試ok，小明持續配合雁秋需求調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無權限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限已開</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定角色可使用的Menu對應的頁面功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者登入紀錄(IP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可刪除或調整狀態(未啟用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>線上離職申請與人資控管</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>線上報修系統及資訊需求申請單下載</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>連結T8資料庫，細部功能多，需與忠哥討論</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Sheet2)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>連結T8資料庫，使用日曆套件，呈現同仁(當月前後)班表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新增活動資料，可設定時間區間，產出報表給總經理。
+      <t>新增活動資料，可設定時間區間，產出「報表」給總經理。
 若有托播需求，可依照格式上傳檔案，雁秋將協助處理。
 另外連動線上差旅報帳系統，可不用重複輸入資料。</t>
     </r>
@@ -753,6 +855,25 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(未開發)</t>
     </r>
     <r>
@@ -764,26 +885,320 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Menu新增1個，慣用項目(分部門)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依計畫名稱等欄位條件查詢，相關專案，並匯出報表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">新增部門內訓課程/讀書會。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)新增內訓課程、報名、講義上傳以及課程分類。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more連結顯示多筆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代辦事項(專案履約前1月提醒同仁)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小提醒(專案履約前5天提醒同仁或移除調整UI介面)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">60天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>線上差旅費用申請及報銷(公出差旅申請、部門公出報表、檢閱相關差旅行程、查詢各部門差旅行程、檢核差旅報帳單…等)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(未開發)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新增用印申請單、用畢回報及控管權限</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">新增部門內訓課程/讀書會。  </t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -792,102 +1207,8 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>少用</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)新增內訓課程、報名、講義上傳以及課程分類。  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>少用</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>線上差旅費用申請及報銷</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(已完成)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>無法用開機密碼自動登入，線上mail系統提供「會外人員」使用，主機為會內Linux，並非M365。
-會外人員並無M365帳號</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">期中、期末績效評量溝通(自評與同儕)。 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>少用</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">15天 </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -897,23 +1218,6 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(未開發)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人資使用，每月5號薪資報表匯出</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>(未開發)</t>
     </r>
     <r>
@@ -928,10 +1232,6 @@
       <t>連結T8資料庫，列出簽和流程的處理人員
 另外每日排程寄發mail通知簽核流程的處理人員</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(未開發)依計畫名稱等欄位條件查詢，相關專案，並匯出報表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1322,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1430,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1511,8 +1819,8 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" t="s">
-        <v>109</v>
+      <c r="F5" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>75</v>
@@ -1531,7 +1839,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="11" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>76</v>
@@ -1549,7 +1857,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>
@@ -1568,7 +1876,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>79</v>
@@ -1614,7 +1922,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>85</v>
@@ -1633,7 +1941,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>81</v>
@@ -1652,7 +1960,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>82</v>
@@ -1671,7 +1979,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>80</v>
@@ -1690,7 +1998,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>83</v>
@@ -1709,7 +2017,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>83</v>
@@ -1728,7 +2036,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>84</v>
@@ -1768,7 +2076,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>86</v>
@@ -1791,7 +2099,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>85</v>
@@ -1813,7 +2121,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -1835,7 +2143,7 @@
         <v>53</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>85</v>
@@ -1872,7 +2180,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>88</v>
@@ -1891,7 +2199,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>85</v>
@@ -1910,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>85</v>
@@ -1932,7 +2240,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>92</v>
@@ -1978,7 +2286,7 @@
         <v>54</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>93</v>
@@ -1997,7 +2305,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>94</v>
@@ -2019,7 +2327,7 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>96</v>
@@ -2038,7 +2346,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>94</v>
@@ -2059,7 +2367,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>97</v>
@@ -2083,7 +2391,7 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>99</v>
@@ -2107,7 +2415,7 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>100</v>
@@ -2145,7 +2453,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>93</v>
@@ -2164,7 +2472,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>93</v>
@@ -2183,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>85</v>
@@ -2202,7 +2510,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>102</v>
@@ -2223,7 +2531,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>103</v>
@@ -2242,7 +2550,7 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>103</v>
@@ -2261,7 +2569,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>104</v>
@@ -2324,7 +2632,7 @@
         <v>53</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>

--- a/Docs/需求/iHub進度整理0102(33).xlsx
+++ b/Docs/需求/iHub進度整理0102(33).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\iHub\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C3C0B-A1F0-4093-BAAE-2F3B47DB6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2E8BB2-D1DD-4892-974E-2040D7AD7E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
